--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Level.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A561D6-1E3C-4909-87E3-5737053B072C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A34C4-4791-45EC-A623-CF36BC2924E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>company_code</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>level_name_en</t>
-  </si>
-  <si>
-    <t>ระดับที่1</t>
-  </si>
-  <si>
-    <t>Leve 1</t>
   </si>
   <si>
     <t xml:space="preserve">ชื่อ ภาษาไทย ความยาว 200 ตัว </t>
@@ -66,13 +60,40 @@
   <si>
     <t>รหัส ระดับ
 ความยาวไม่เกิน 2 ตัว</t>
+  </si>
+  <si>
+    <t>สาขา</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>ฝ่าย</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>แผนก</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +111,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,12 +165,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -159,11 +188,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE83D22-C3E2-486C-B25F-AC3CCEA5E252}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.26953125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -480,30 +512,8 @@
       <c r="O1"/>
       <c r="P1"/>
     </row>
-    <row r="2" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -512,10 +522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B0A84-693A-41BE-80ED-7BDD57CCAFEE}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -534,16 +544,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -568,22 +578,46 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1">
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -591,6 +625,32 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
+    <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Level.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A34C4-4791-45EC-A623-CF36BC2924E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7048DEA8-C1DE-4512-8672-356149D44A08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>company_code</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">ชื่อ ภาษาอังกฤษ ความยาว 200 ตัว </t>
-  </si>
-  <si>
-    <t>เลขที่   (null)</t>
   </si>
   <si>
     <t>รหัส ระดับ
@@ -87,6 +84,15 @@
   </si>
   <si>
     <t>03</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -171,7 +177,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -475,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE83D22-C3E2-486C-B25F-AC3CCEA5E252}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -524,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860B0A84-693A-41BE-80ED-7BDD57CCAFEE}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.54296875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -535,7 +544,8 @@
     <col min="3" max="3" width="36" customWidth="1"/>
     <col min="4" max="4" width="27.54296875" customWidth="1"/>
     <col min="5" max="5" width="29.36328125" customWidth="1"/>
-    <col min="8" max="10" width="20.1796875" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
+    <col min="9" max="10" width="20.1796875" customWidth="1"/>
     <col min="11" max="11" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>7</v>
@@ -555,6 +565,8 @@
       <c r="E1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -572,6 +584,12 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -579,17 +597,15 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -605,17 +621,15 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -631,17 +645,15 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -652,6 +664,9 @@
       <c r="P5" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>